--- a/techniqo/data_new_ticker/CGCL.xlsx
+++ b/techniqo/data_new_ticker/CGCL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1390"/>
+  <dimension ref="A1:G1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49036,6 +49036,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>224</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>233.9</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>146007</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>232.95</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>222.95</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>89501</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/CGCL.xlsx
+++ b/techniqo/data_new_ticker/CGCL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1392"/>
+  <dimension ref="A1:G1394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49086,6 +49086,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>217.95</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>55214</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>220</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>235</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>220</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>232.85</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>136529</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
